--- a/pred_ohlcv/54_21/2020-01-25 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 QTUM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-2272.50687152</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-6177.50687152</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-6302.50687152</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-6349.50687152</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-5526.35457152</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-23155.00926118</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-23090.17656118</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-23588.56246118</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-23600.76636118</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-23595.46636118</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-23595.46636118</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-24072.43446118</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-20797.43976117999</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-20839.17886117999</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-20795.42016117999</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-20985.43066117999</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-20518.65226118</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-20979.65226118</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-20979.65226118</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-20240.47316117999</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-20287.99326117999</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-18191.23926117999</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-18072.68476117999</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-18072.68476117999</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-18172.68476117999</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-18171.73186117999</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-18171.73186117999</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-18171.73186117999</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-19004.23166117999</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-18379.58246117999</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-18493.94816117999</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-18608.31396117999</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-18212.53596117999</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-17052.53596117999</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-15852.53596117999</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-17146.94426117999</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-17748.46206117999</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-17748.46206117999</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-17540.46206117999</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-17540.46206117999</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-17540.46206117999</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-17582.51726117999</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-18037.88386117999</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-17890.98256117999</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-17752.08116117999</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-17752.08116117999</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-17599.13636117999</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-17599.13636117999</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-17599.13636117999</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-17599.13636117999</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-17596.12446117999</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-18596.12446117999</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-18595.12446117999</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-13970.39787790999</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-14096.39787790999</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-14096.39787790999</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-14170.67277790999</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-18697.23537791</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-19966.97597791</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-16862.97057791</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-8419.312884529996</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-9491.111484529996</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-9521.111484529996</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-9418.318484529997</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-9007.574784529996</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-9083.928584529996</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-10535.72168453</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-10535.72168453</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-10535.72168453</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-8521.009584529997</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-8087.888584529996</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-5691.894684529996</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-5713.198684529996</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-10416.63068453</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-10802.32866736</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-10863.32916736</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-10862.99616736</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-11182.74616736</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-11180.74616736</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-11180.74616736</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-10793.00226736</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-10793.00226736</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-10886.51936736</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-10886.51936736</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-10886.18936736</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-11679.55586736</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-11682.53606736</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-11396.00096736</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-11329.97406736</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-11330.24846736</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-13074.17446736</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-12282.61676736</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-12677.87486736</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-10869.11206736</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-6639.060667359999</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-6785.822767359999</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-6463.228467359999</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 QTUM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-2272.50687152</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-6177.50687152</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-6302.50687152</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-6349.50687152</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-5526.35457152</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-6380.35457152</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-10200.08053982</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-10245.35803982</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-10313.81593982</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-10382.29003982</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-10782.31673982</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-10214.91903982</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-10214.91903982</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-10260.89723982</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-10233.03723982</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-11259.62623982</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-11465.75453982</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-11427.55453982</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-11304.77353981999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-11660.50573982</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-11984.58163982</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-12002.36243982</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-12022.36243982</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-12028.63423982</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-23155.00926118</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-23090.17656118</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-23588.56246118</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-23600.76636118</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-23595.46636118</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-23595.46636118</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-24072.43446118</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-20797.43976117999</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-20839.17886117999</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-20795.42016117999</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-21423.24506117999</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-20853.74336117999</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-20985.43066117999</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-20518.65226118</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-20979.65226118</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-20979.65226118</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-20979.65226118</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-20240.47316117999</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-19933.56026117999</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-19953.89486117999</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-20042.46806117999</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-20316.66266117999</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-20354.65256117999</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-20287.99326117999</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-20152.00946117999</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-20152.00946117999</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-19458.35276117999</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-18762.58926117999</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-18191.23926117999</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-18072.68476117999</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-18072.68476117999</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-18172.68476117999</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-18171.73186117999</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-18171.73186117999</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-18171.73186117999</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-19004.23166117999</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-18379.58246117999</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-18493.94816117999</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-18608.31396117999</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-18212.53596117999</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-17052.53596117999</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-15852.53596117999</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-17146.94426117999</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-17748.46206117999</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-17748.46206117999</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-17540.46206117999</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-17540.46206117999</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-17540.46206117999</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-17582.51726117999</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-18037.88386117999</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-17890.98256117999</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-17752.08116117999</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-17752.08116117999</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-17599.13636117999</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-17599.13636117999</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-17599.13636117999</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-17599.13636117999</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-17596.12446117999</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-18596.12446117999</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-18595.12446117999</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-13970.39787790999</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-14096.39787790999</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-14096.39787790999</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-14170.67277790999</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-18697.23537791</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-19966.97597791</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-16862.97057791</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-8419.312884529996</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-9491.111484529996</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-9521.111484529996</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-9418.318484529997</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-9007.574784529996</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-9083.928584529996</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-10535.72168453</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-10535.72168453</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-10535.72168453</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-8521.009584529997</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-8087.888584529996</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-5691.894684529996</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-5713.198684529996</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-10416.63068453</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-10802.32866736</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-10792.32866736</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-10863.32916736</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-10862.99616736</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-11182.74616736</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-11182.74616736</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-10886.51936736</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-11329.97406736</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-11330.24846736</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-13074.17446736</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-12282.61676736</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-12678.11036736</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-6163.458467359998</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-6163.228467359999</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-6463.228467359999</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
